--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3877,28 +3877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2741.898713541969</v>
+        <v>2871.313979128201</v>
       </c>
       <c r="AB2" t="n">
-        <v>3751.586783902365</v>
+        <v>3928.658459676025</v>
       </c>
       <c r="AC2" t="n">
-        <v>3393.540606631702</v>
+        <v>3553.712810191176</v>
       </c>
       <c r="AD2" t="n">
-        <v>2741898.713541969</v>
+        <v>2871313.979128201</v>
       </c>
       <c r="AE2" t="n">
-        <v>3751586.783902365</v>
+        <v>3928658.459676025</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.00966612276483e-06</v>
+        <v>1.455599719432235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.10208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3393540.606631702</v>
+        <v>3553712.810191176</v>
       </c>
     </row>
     <row r="3">
@@ -3983,28 +3983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>943.3081258115701</v>
+        <v>1012.289816829418</v>
       </c>
       <c r="AB3" t="n">
-        <v>1290.675793552805</v>
+        <v>1385.059586460849</v>
       </c>
       <c r="AC3" t="n">
-        <v>1167.495507290978</v>
+        <v>1252.871443472364</v>
       </c>
       <c r="AD3" t="n">
-        <v>943308.1258115701</v>
+        <v>1012289.816829418</v>
       </c>
       <c r="AE3" t="n">
-        <v>1290675.793552805</v>
+        <v>1385059.586460849</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.899123477265216e-06</v>
+        <v>2.737898735380558e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.00416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1167495.507290978</v>
+        <v>1252871.443472364</v>
       </c>
     </row>
     <row r="4">
@@ -4089,28 +4089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>726.010552505361</v>
+        <v>786.4441270737454</v>
       </c>
       <c r="AB4" t="n">
-        <v>993.359667262896</v>
+        <v>1076.047550128503</v>
       </c>
       <c r="AC4" t="n">
-        <v>898.554814808374</v>
+        <v>973.3510821864597</v>
       </c>
       <c r="AD4" t="n">
-        <v>726010.552505361</v>
+        <v>786444.1270737455</v>
       </c>
       <c r="AE4" t="n">
-        <v>993359.667262896</v>
+        <v>1076047.550128503</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.219923333349577e-06</v>
+        <v>3.200384471983865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.69166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>898554.8148083739</v>
+        <v>973351.0821864597</v>
       </c>
     </row>
     <row r="5">
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>640.9324546505277</v>
+        <v>701.2806883643404</v>
       </c>
       <c r="AB5" t="n">
-        <v>876.9520603971359</v>
+        <v>959.5231761405448</v>
       </c>
       <c r="AC5" t="n">
-        <v>793.2569865627795</v>
+        <v>867.9476309089264</v>
       </c>
       <c r="AD5" t="n">
-        <v>640932.4546505277</v>
+        <v>701280.6883643405</v>
       </c>
       <c r="AE5" t="n">
-        <v>876952.0603971359</v>
+        <v>959523.1761405448</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.388711615973317e-06</v>
+        <v>3.443720532579601e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.72291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>793256.9865627795</v>
+        <v>867947.6309089264</v>
       </c>
     </row>
     <row r="6">
@@ -4301,28 +4301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>596.206724960583</v>
+        <v>647.9216803874634</v>
       </c>
       <c r="AB6" t="n">
-        <v>815.7563438754183</v>
+        <v>886.5150273932892</v>
       </c>
       <c r="AC6" t="n">
-        <v>737.9017033371671</v>
+        <v>801.9072774105283</v>
       </c>
       <c r="AD6" t="n">
-        <v>596206.7249605829</v>
+        <v>647921.6803874634</v>
       </c>
       <c r="AE6" t="n">
-        <v>815756.3438754183</v>
+        <v>886515.0273932891</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.495207248052255e-06</v>
+        <v>3.597251495617534e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.18125</v>
       </c>
       <c r="AH6" t="n">
-        <v>737901.703337167</v>
+        <v>801907.2774105283</v>
       </c>
     </row>
     <row r="7">
@@ -4407,28 +4407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>557.6980023462467</v>
+        <v>609.4982091191476</v>
       </c>
       <c r="AB7" t="n">
-        <v>763.0670107095428</v>
+        <v>833.9423388800631</v>
       </c>
       <c r="AC7" t="n">
-        <v>690.2409661786994</v>
+        <v>754.3520525027728</v>
       </c>
       <c r="AD7" t="n">
-        <v>557698.0023462466</v>
+        <v>609498.2091191476</v>
       </c>
       <c r="AE7" t="n">
-        <v>763067.0107095429</v>
+        <v>833942.338880063</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.566836501957403e-06</v>
+        <v>3.700516841989623e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.83958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>690240.9661786994</v>
+        <v>754352.0525027729</v>
       </c>
     </row>
     <row r="8">
@@ -4513,28 +4513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>534.1476963925649</v>
+        <v>585.9479031654658</v>
       </c>
       <c r="AB8" t="n">
-        <v>730.8444431375433</v>
+        <v>801.7197713080635</v>
       </c>
       <c r="AC8" t="n">
-        <v>661.0936752311138</v>
+        <v>725.2047615551871</v>
       </c>
       <c r="AD8" t="n">
-        <v>534147.6963925648</v>
+        <v>585947.9031654658</v>
       </c>
       <c r="AE8" t="n">
-        <v>730844.4431375433</v>
+        <v>801719.7713080635</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.621689046699431e-06</v>
+        <v>3.779595803773544e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.59166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>661093.6752311138</v>
+        <v>725204.7615551872</v>
       </c>
     </row>
     <row r="9">
@@ -4619,28 +4619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>513.9118506440864</v>
+        <v>565.5414652163952</v>
       </c>
       <c r="AB9" t="n">
-        <v>703.1568662419674</v>
+        <v>773.7987826376403</v>
       </c>
       <c r="AC9" t="n">
-        <v>636.0485618146932</v>
+        <v>699.9485128561156</v>
       </c>
       <c r="AD9" t="n">
-        <v>513911.8506440864</v>
+        <v>565541.4652163952</v>
       </c>
       <c r="AE9" t="n">
-        <v>703156.8662419673</v>
+        <v>773798.7826376404</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.664141415103501e-06</v>
+        <v>3.840797872600995e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.40833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>636048.5618146933</v>
+        <v>699948.5128561156</v>
       </c>
     </row>
     <row r="10">
@@ -4725,28 +4725,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>492.141760538905</v>
+        <v>535.3086890248735</v>
       </c>
       <c r="AB10" t="n">
-        <v>673.3700685314664</v>
+        <v>732.4329644764482</v>
       </c>
       <c r="AC10" t="n">
-        <v>609.1045742716493</v>
+        <v>662.5305903229371</v>
       </c>
       <c r="AD10" t="n">
-        <v>492141.760538905</v>
+        <v>535308.6890248735</v>
       </c>
       <c r="AE10" t="n">
-        <v>673370.0685314664</v>
+        <v>732432.9644764483</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.710386778622711e-06</v>
+        <v>3.907468167509248e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.2125</v>
       </c>
       <c r="AH10" t="n">
-        <v>609104.5742716494</v>
+        <v>662530.5903229371</v>
       </c>
     </row>
     <row r="11">
@@ -4831,28 +4831,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>483.8331005737704</v>
+        <v>527.0000290597388</v>
       </c>
       <c r="AB11" t="n">
-        <v>662.0017934149614</v>
+        <v>721.0646893599433</v>
       </c>
       <c r="AC11" t="n">
-        <v>598.8212713767894</v>
+        <v>652.2472874280771</v>
       </c>
       <c r="AD11" t="n">
-        <v>483833.1005737704</v>
+        <v>527000.0290597389</v>
       </c>
       <c r="AE11" t="n">
-        <v>662001.7934149614</v>
+        <v>721064.6893599433</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.712866813890302e-06</v>
+        <v>3.911043546100542e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.20208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>598821.2713767893</v>
+        <v>652247.2874280771</v>
       </c>
     </row>
     <row r="12">
@@ -4937,28 +4937,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>477.1293054476026</v>
+        <v>520.2962339335711</v>
       </c>
       <c r="AB12" t="n">
-        <v>652.829365172771</v>
+        <v>711.8922611177527</v>
       </c>
       <c r="AC12" t="n">
-        <v>590.5242468124495</v>
+        <v>643.9502628637373</v>
       </c>
       <c r="AD12" t="n">
-        <v>477129.3054476026</v>
+        <v>520296.2339335711</v>
       </c>
       <c r="AE12" t="n">
-        <v>652829.3651727709</v>
+        <v>711892.2611177526</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.723954030380712e-06</v>
+        <v>3.927027591567505e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.15833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>590524.2468124495</v>
+        <v>643950.2628637373</v>
       </c>
     </row>
     <row r="13">
@@ -5043,28 +5043,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>477.4661659956249</v>
+        <v>520.6330944815934</v>
       </c>
       <c r="AB13" t="n">
-        <v>653.2902726358135</v>
+        <v>712.3531685807953</v>
       </c>
       <c r="AC13" t="n">
-        <v>590.941165914107</v>
+        <v>644.3671819653948</v>
       </c>
       <c r="AD13" t="n">
-        <v>477466.1659956248</v>
+        <v>520633.0944815934</v>
       </c>
       <c r="AE13" t="n">
-        <v>653290.2726358135</v>
+        <v>712353.1685807953</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.729351754198412e-06</v>
+        <v>3.934809297913263e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.13541666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>590941.165914107</v>
+        <v>644367.1819653949</v>
       </c>
     </row>
   </sheetData>
@@ -5340,28 +5340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1660.413508396171</v>
+        <v>1761.422591056207</v>
       </c>
       <c r="AB2" t="n">
-        <v>2271.851014461745</v>
+        <v>2410.05609756343</v>
       </c>
       <c r="AC2" t="n">
-        <v>2055.02874220444</v>
+        <v>2180.043726146954</v>
       </c>
       <c r="AD2" t="n">
-        <v>1660413.508396171</v>
+        <v>1761422.591056207</v>
       </c>
       <c r="AE2" t="n">
-        <v>2271851.014461745</v>
+        <v>2410056.09756343</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.332432059632039e-06</v>
+        <v>1.950630410602459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.59791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2055028.74220444</v>
+        <v>2180043.726146954</v>
       </c>
     </row>
     <row r="3">
@@ -5446,28 +5446,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>742.4358362131334</v>
+        <v>809.689883798586</v>
       </c>
       <c r="AB3" t="n">
-        <v>1015.833465064245</v>
+        <v>1107.853420009838</v>
       </c>
       <c r="AC3" t="n">
-        <v>918.8837448897356</v>
+        <v>1002.121444486139</v>
       </c>
       <c r="AD3" t="n">
-        <v>742435.8362131334</v>
+        <v>809689.8837985861</v>
       </c>
       <c r="AE3" t="n">
-        <v>1015833.465064245</v>
+        <v>1107853.420009838</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.144205991986862e-06</v>
+        <v>3.139036909484623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.6625</v>
       </c>
       <c r="AH3" t="n">
-        <v>918883.7448897356</v>
+        <v>1002121.444486139</v>
       </c>
     </row>
     <row r="4">
@@ -5552,28 +5552,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>594.5259820010391</v>
+        <v>653.3626060314887</v>
       </c>
       <c r="AB4" t="n">
-        <v>813.4566772090241</v>
+        <v>893.959541896143</v>
       </c>
       <c r="AC4" t="n">
-        <v>735.8215136298111</v>
+        <v>808.6412978976716</v>
       </c>
       <c r="AD4" t="n">
-        <v>594525.9820010391</v>
+        <v>653362.6060314886</v>
       </c>
       <c r="AE4" t="n">
-        <v>813456.6772090241</v>
+        <v>893959.541896143</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.437283697254211e-06</v>
+        <v>3.568091644719641e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="AH4" t="n">
-        <v>735821.5136298111</v>
+        <v>808641.2978976716</v>
       </c>
     </row>
     <row r="5">
@@ -5658,28 +5658,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>538.5159149761128</v>
+        <v>588.9352049601104</v>
       </c>
       <c r="AB5" t="n">
-        <v>736.8212325157565</v>
+        <v>805.8071294139501</v>
       </c>
       <c r="AC5" t="n">
-        <v>666.5000482195469</v>
+        <v>728.902027940091</v>
       </c>
       <c r="AD5" t="n">
-        <v>538515.9149761128</v>
+        <v>588935.2049601104</v>
       </c>
       <c r="AE5" t="n">
-        <v>736821.2325157565</v>
+        <v>805807.12941395</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.586237196275257e-06</v>
+        <v>3.786153963811795e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.15625</v>
       </c>
       <c r="AH5" t="n">
-        <v>666500.0482195469</v>
+        <v>728902.027940091</v>
       </c>
     </row>
     <row r="6">
@@ -5764,28 +5764,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>494.312057272704</v>
+        <v>544.8165986027221</v>
       </c>
       <c r="AB6" t="n">
-        <v>676.3395642693847</v>
+        <v>745.4421058202274</v>
       </c>
       <c r="AC6" t="n">
-        <v>611.7906655040541</v>
+        <v>674.2981574753106</v>
       </c>
       <c r="AD6" t="n">
-        <v>494312.057272704</v>
+        <v>544816.5986027222</v>
       </c>
       <c r="AE6" t="n">
-        <v>676339.5642693847</v>
+        <v>745442.1058202274</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.680861151580421e-06</v>
+        <v>3.92467987472444e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.72708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>611790.6655040542</v>
+        <v>674298.1574753106</v>
       </c>
     </row>
     <row r="7">
@@ -5870,28 +5870,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>467.1376836320084</v>
+        <v>517.4716327614343</v>
       </c>
       <c r="AB7" t="n">
-        <v>639.1583874054304</v>
+        <v>708.0275171814262</v>
       </c>
       <c r="AC7" t="n">
-        <v>578.1580079758861</v>
+        <v>640.4543646644917</v>
       </c>
       <c r="AD7" t="n">
-        <v>467137.6836320084</v>
+        <v>517471.6327614343</v>
       </c>
       <c r="AE7" t="n">
-        <v>639158.3874054304</v>
+        <v>708027.5171814262</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.746358434837903e-06</v>
+        <v>4.020565433474181e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.44791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>578158.0079758861</v>
+        <v>640454.3646644916</v>
       </c>
     </row>
     <row r="8">
@@ -5976,28 +5976,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>443.8194561908461</v>
+        <v>494.1534053202721</v>
       </c>
       <c r="AB8" t="n">
-        <v>607.2533598928414</v>
+        <v>676.1224896688371</v>
       </c>
       <c r="AC8" t="n">
-        <v>549.2979515101114</v>
+        <v>611.5943081987167</v>
       </c>
       <c r="AD8" t="n">
-        <v>443819.4561908461</v>
+        <v>494153.4053202721</v>
       </c>
       <c r="AE8" t="n">
-        <v>607253.3598928414</v>
+        <v>676122.4896688372</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.795104108782987e-06</v>
+        <v>4.091927266368575e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.24791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>549297.9515101113</v>
+        <v>611594.3081987167</v>
       </c>
     </row>
     <row r="9">
@@ -6082,28 +6082,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>437.6220093678287</v>
+        <v>479.709216651395</v>
       </c>
       <c r="AB9" t="n">
-        <v>598.7737397375316</v>
+        <v>656.3593134994489</v>
       </c>
       <c r="AC9" t="n">
-        <v>541.6276144012029</v>
+        <v>593.717301825143</v>
       </c>
       <c r="AD9" t="n">
-        <v>437622.0093678287</v>
+        <v>479709.216651395</v>
       </c>
       <c r="AE9" t="n">
-        <v>598773.7397375316</v>
+        <v>656359.3134994489</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.810950225700119e-06</v>
+        <v>4.115125385420931e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.18541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>541627.6144012029</v>
+        <v>593717.3018251429</v>
       </c>
     </row>
     <row r="10">
@@ -6188,28 +6188,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>439.4612907654317</v>
+        <v>481.5484980489978</v>
       </c>
       <c r="AB10" t="n">
-        <v>601.2903256891004</v>
+        <v>658.8758994510177</v>
       </c>
       <c r="AC10" t="n">
-        <v>543.9040209216045</v>
+        <v>595.9937083455446</v>
       </c>
       <c r="AD10" t="n">
-        <v>439461.2907654317</v>
+        <v>481548.4980489978</v>
       </c>
       <c r="AE10" t="n">
-        <v>601290.3256891004</v>
+        <v>658875.8994510177</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.810346564103276e-06</v>
+        <v>4.11424164755227e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.1875</v>
       </c>
       <c r="AH10" t="n">
-        <v>543904.0209216045</v>
+        <v>595993.7083455446</v>
       </c>
     </row>
   </sheetData>
@@ -6485,28 +6485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>557.7267479178524</v>
+        <v>619.7797169371999</v>
       </c>
       <c r="AB2" t="n">
-        <v>763.1063416687791</v>
+        <v>848.0099514648341</v>
       </c>
       <c r="AC2" t="n">
-        <v>690.2765434463874</v>
+        <v>767.0770718864716</v>
       </c>
       <c r="AD2" t="n">
-        <v>557726.7479178525</v>
+        <v>619779.7169371998</v>
       </c>
       <c r="AE2" t="n">
-        <v>763106.3416687791</v>
+        <v>848009.9514648342</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.3410912464e-06</v>
+        <v>3.621957125897802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.98541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>690276.5434463874</v>
+        <v>767077.0718864716</v>
       </c>
     </row>
     <row r="3">
@@ -6591,28 +6591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.4666555031134</v>
+        <v>418.9851365625319</v>
       </c>
       <c r="AB3" t="n">
-        <v>509.6253101284843</v>
+        <v>573.2739481645244</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.9873857934361</v>
+        <v>518.561487146741</v>
       </c>
       <c r="AD3" t="n">
-        <v>372466.6555031134</v>
+        <v>418985.1365625319</v>
       </c>
       <c r="AE3" t="n">
-        <v>509625.3101284843</v>
+        <v>573273.9481645244</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.920217472581097e-06</v>
+        <v>4.517936881038253e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.01458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>460987.3857934361</v>
+        <v>518561.487146741</v>
       </c>
     </row>
     <row r="4">
@@ -6697,28 +6697,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.4195237370083</v>
+        <v>395.0232561424474</v>
       </c>
       <c r="AB4" t="n">
-        <v>476.7229635615192</v>
+        <v>540.4882462502087</v>
       </c>
       <c r="AC4" t="n">
-        <v>431.2251930040887</v>
+        <v>488.904806608106</v>
       </c>
       <c r="AD4" t="n">
-        <v>348419.5237370083</v>
+        <v>395023.2561424474</v>
       </c>
       <c r="AE4" t="n">
-        <v>476722.9635615192</v>
+        <v>540488.2462502087</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.989092909192922e-06</v>
+        <v>4.624495682972665e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.7375</v>
       </c>
       <c r="AH4" t="n">
-        <v>431225.1930040887</v>
+        <v>488904.806608106</v>
       </c>
     </row>
     <row r="5">
@@ -6803,28 +6803,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.8341312181389</v>
+        <v>396.437863623578</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.6584919252796</v>
+        <v>542.4237746139692</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.9759972573429</v>
+        <v>490.6556108613603</v>
       </c>
       <c r="AD5" t="n">
-        <v>349834.1312181388</v>
+        <v>396437.863623578</v>
       </c>
       <c r="AE5" t="n">
-        <v>478658.4919252796</v>
+        <v>542423.7746139691</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.993134499605353e-06</v>
+        <v>4.630748522205981e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.72083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>432975.9972573429</v>
+        <v>490655.6108613603</v>
       </c>
     </row>
   </sheetData>
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>829.6042101702081</v>
+        <v>901.6268075753173</v>
       </c>
       <c r="AB2" t="n">
-        <v>1135.101079909565</v>
+        <v>1233.645575091982</v>
       </c>
       <c r="AC2" t="n">
-        <v>1026.768625967367</v>
+        <v>1115.908172837642</v>
       </c>
       <c r="AD2" t="n">
-        <v>829604.2101702081</v>
+        <v>901626.8075753173</v>
       </c>
       <c r="AE2" t="n">
-        <v>1135101.079909565</v>
+        <v>1233645.575091982</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.934358367022874e-06</v>
+        <v>2.923384132882013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.35208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1026768.625967367</v>
+        <v>1115908.172837642</v>
       </c>
     </row>
     <row r="3">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>488.2841382634929</v>
+        <v>544.3490559911336</v>
       </c>
       <c r="AB3" t="n">
-        <v>668.0918995479641</v>
+        <v>744.8023933925275</v>
       </c>
       <c r="AC3" t="n">
-        <v>604.3301463279757</v>
+        <v>673.7194983038684</v>
       </c>
       <c r="AD3" t="n">
-        <v>488284.138263493</v>
+        <v>544349.0559911336</v>
       </c>
       <c r="AE3" t="n">
-        <v>668091.8995479641</v>
+        <v>744802.3933925275</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.608572555911916e-06</v>
+        <v>3.942319969986303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.86666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>604330.1463279758</v>
+        <v>673719.4983038683</v>
       </c>
     </row>
     <row r="4">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.0912772011683</v>
+        <v>457.2200702716359</v>
       </c>
       <c r="AB4" t="n">
-        <v>559.7367333000375</v>
+        <v>625.588671271547</v>
       </c>
       <c r="AC4" t="n">
-        <v>506.3162450693203</v>
+        <v>565.8833665046043</v>
       </c>
       <c r="AD4" t="n">
-        <v>409091.2772011684</v>
+        <v>457220.0702716359</v>
       </c>
       <c r="AE4" t="n">
-        <v>559736.7333000374</v>
+        <v>625588.671271547</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.842332361904269e-06</v>
+        <v>4.295599754846119e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.80833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>506316.2450693203</v>
+        <v>565883.3665046042</v>
       </c>
     </row>
     <row r="5">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>379.618282709167</v>
+        <v>427.5764835790422</v>
       </c>
       <c r="AB5" t="n">
-        <v>519.4104819793318</v>
+        <v>585.0290081759942</v>
       </c>
       <c r="AC5" t="n">
-        <v>469.8386745764137</v>
+        <v>529.1946607290465</v>
       </c>
       <c r="AD5" t="n">
-        <v>379618.282709167</v>
+        <v>427576.4835790423</v>
       </c>
       <c r="AE5" t="n">
-        <v>519410.4819793318</v>
+        <v>585029.0081759943</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.931905381981284e-06</v>
+        <v>4.430970919823416e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.44791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>469838.6745764137</v>
+        <v>529194.6607290466</v>
       </c>
     </row>
     <row r="6">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>380.119127450541</v>
+        <v>428.0773283204164</v>
       </c>
       <c r="AB6" t="n">
-        <v>520.0957598501903</v>
+        <v>585.7142860468527</v>
       </c>
       <c r="AC6" t="n">
-        <v>470.4585504890708</v>
+        <v>529.8145366417039</v>
       </c>
       <c r="AD6" t="n">
-        <v>380119.127450541</v>
+        <v>428077.3283204164</v>
       </c>
       <c r="AE6" t="n">
-        <v>520095.7598501904</v>
+        <v>585714.2860468527</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.935771843279572e-06</v>
+        <v>4.436814279462723e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.43333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>470458.5504890708</v>
+        <v>529814.5366417038</v>
       </c>
     </row>
     <row r="7">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>380.8817111982375</v>
+        <v>428.8399120681128</v>
       </c>
       <c r="AB7" t="n">
-        <v>521.1391605766091</v>
+        <v>586.7576867732715</v>
       </c>
       <c r="AC7" t="n">
-        <v>471.4023705145824</v>
+        <v>530.7583566672154</v>
       </c>
       <c r="AD7" t="n">
-        <v>380881.7111982375</v>
+        <v>428839.9120681128</v>
       </c>
       <c r="AE7" t="n">
-        <v>521139.1605766091</v>
+        <v>586757.6867732715</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.940121612240147e-06</v>
+        <v>4.443388059056944e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.41458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>471402.3705145824</v>
+        <v>530758.3566672154</v>
       </c>
     </row>
   </sheetData>
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>406.404388553283</v>
+        <v>459.1454778126789</v>
       </c>
       <c r="AB2" t="n">
-        <v>556.0604137148395</v>
+        <v>628.2230988121876</v>
       </c>
       <c r="AC2" t="n">
-        <v>502.9907882655867</v>
+        <v>568.2663679782087</v>
       </c>
       <c r="AD2" t="n">
-        <v>406404.388553283</v>
+        <v>459145.4778126789</v>
       </c>
       <c r="AE2" t="n">
-        <v>556060.4137148395</v>
+        <v>628223.0988121876</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.699887377061246e-06</v>
+        <v>4.267139574722696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.49583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>502990.7882655867</v>
+        <v>568266.3679782087</v>
       </c>
     </row>
     <row r="3">
@@ -8033,28 +8033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>332.7394340234886</v>
+        <v>378.0070525003149</v>
       </c>
       <c r="AB3" t="n">
-        <v>455.2687730587452</v>
+        <v>517.2059257251202</v>
       </c>
       <c r="AC3" t="n">
-        <v>411.818560331754</v>
+        <v>467.8445180769899</v>
       </c>
       <c r="AD3" t="n">
-        <v>332739.4340234886</v>
+        <v>378007.0525003149</v>
       </c>
       <c r="AE3" t="n">
-        <v>455268.7730587452</v>
+        <v>517205.9257251202</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.999136408748218e-06</v>
+        <v>4.740099075425588e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.15</v>
       </c>
       <c r="AH3" t="n">
-        <v>411818.560331754</v>
+        <v>467844.5180769899</v>
       </c>
     </row>
     <row r="4">
@@ -8139,28 +8139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>334.3058491709476</v>
+        <v>379.5734676477739</v>
       </c>
       <c r="AB4" t="n">
-        <v>457.4120113688577</v>
+        <v>519.3491640352328</v>
       </c>
       <c r="AC4" t="n">
-        <v>413.7572509856032</v>
+        <v>469.7832087308391</v>
       </c>
       <c r="AD4" t="n">
-        <v>334305.8491709476</v>
+        <v>379573.4676477739</v>
       </c>
       <c r="AE4" t="n">
-        <v>457412.0113688577</v>
+        <v>519349.1640352327</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.003159043306254e-06</v>
+        <v>4.746456801034101e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.13333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>413757.2509856031</v>
+        <v>469783.2087308391</v>
       </c>
     </row>
   </sheetData>
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1868.073103459956</v>
+        <v>1978.152137087109</v>
       </c>
       <c r="AB2" t="n">
-        <v>2555.980033722779</v>
+        <v>2706.595023875669</v>
       </c>
       <c r="AC2" t="n">
-        <v>2312.040886644784</v>
+        <v>2448.281393526949</v>
       </c>
       <c r="AD2" t="n">
-        <v>1868073.103459956</v>
+        <v>1978152.137087109</v>
       </c>
       <c r="AE2" t="n">
-        <v>2555980.033722779</v>
+        <v>2706595.023875669</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.247178646907986e-06</v>
+        <v>1.818244649146585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.98333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2312040.886644784</v>
+        <v>2448281.393526949</v>
       </c>
     </row>
     <row r="3">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>785.9568704923109</v>
+        <v>853.664990857262</v>
       </c>
       <c r="AB3" t="n">
-        <v>1075.380864177541</v>
+        <v>1168.02210153232</v>
       </c>
       <c r="AC3" t="n">
-        <v>972.7480238069578</v>
+        <v>1056.54771149139</v>
       </c>
       <c r="AD3" t="n">
-        <v>785956.870492311</v>
+        <v>853664.9908572619</v>
       </c>
       <c r="AE3" t="n">
-        <v>1075380.864177541</v>
+        <v>1168022.10153232</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.079329023619346e-06</v>
+        <v>3.031425273664105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.98541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>972748.0238069578</v>
+        <v>1056547.71149139</v>
       </c>
     </row>
     <row r="4">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>633.5413877549065</v>
+        <v>684.3865731780996</v>
       </c>
       <c r="AB4" t="n">
-        <v>866.8392765996887</v>
+        <v>936.4079024269698</v>
       </c>
       <c r="AC4" t="n">
-        <v>784.1093526575795</v>
+        <v>847.0384464760846</v>
       </c>
       <c r="AD4" t="n">
-        <v>633541.3877549066</v>
+        <v>684386.5731780996</v>
       </c>
       <c r="AE4" t="n">
-        <v>866839.2765996887</v>
+        <v>936407.9024269698</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.37859805737194e-06</v>
+        <v>3.467725494666901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>784109.3526575795</v>
+        <v>847038.4464760845</v>
       </c>
     </row>
     <row r="5">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>562.9629883515472</v>
+        <v>613.7228329201687</v>
       </c>
       <c r="AB5" t="n">
-        <v>770.2707968367847</v>
+        <v>839.7226555418683</v>
       </c>
       <c r="AC5" t="n">
-        <v>696.7572330685344</v>
+        <v>759.5807038551006</v>
       </c>
       <c r="AD5" t="n">
-        <v>562962.9883515472</v>
+        <v>613722.8329201686</v>
       </c>
       <c r="AE5" t="n">
-        <v>770270.7968367847</v>
+        <v>839722.6555418683</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.536533139652169e-06</v>
+        <v>3.69797688566088e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.28333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>696757.2330685344</v>
+        <v>759580.7038551007</v>
       </c>
     </row>
     <row r="6">
@@ -8860,28 +8860,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>516.4810643475308</v>
+        <v>567.3261602621728</v>
       </c>
       <c r="AB6" t="n">
-        <v>706.6721777767291</v>
+        <v>776.2406811344619</v>
       </c>
       <c r="AC6" t="n">
-        <v>639.228376950348</v>
+        <v>702.1573599876266</v>
       </c>
       <c r="AD6" t="n">
-        <v>516481.0643475308</v>
+        <v>567326.1602621728</v>
       </c>
       <c r="AE6" t="n">
-        <v>706672.1777767291</v>
+        <v>776240.6811344619</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.635990364762352e-06</v>
+        <v>3.8429742104819e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.82083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>639228.376950348</v>
+        <v>702157.3599876266</v>
       </c>
     </row>
     <row r="7">
@@ -8966,28 +8966,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>489.3939894523705</v>
+        <v>540.2390853670125</v>
       </c>
       <c r="AB7" t="n">
-        <v>669.6104469077651</v>
+        <v>739.1789502654979</v>
       </c>
       <c r="AC7" t="n">
-        <v>605.703765659052</v>
+        <v>668.6327486963306</v>
       </c>
       <c r="AD7" t="n">
-        <v>489393.9894523705</v>
+        <v>540239.0853670125</v>
       </c>
       <c r="AE7" t="n">
-        <v>669610.4469077651</v>
+        <v>739178.9502654979</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.700151491938695e-06</v>
+        <v>3.936513838073204e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.53958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>605703.7656590521</v>
+        <v>668632.7486963306</v>
       </c>
     </row>
     <row r="8">
@@ -9072,28 +9072,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>466.268993437215</v>
+        <v>516.9434971512646</v>
       </c>
       <c r="AB8" t="n">
-        <v>637.9698071570075</v>
+        <v>707.3048987398934</v>
       </c>
       <c r="AC8" t="n">
-        <v>577.08286415819</v>
+        <v>639.8007119128173</v>
       </c>
       <c r="AD8" t="n">
-        <v>466268.993437215</v>
+        <v>516943.4971512647</v>
       </c>
       <c r="AE8" t="n">
-        <v>637969.8071570075</v>
+        <v>707304.8987398933</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.752198280417407e-06</v>
+        <v>4.012392137378038e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.32083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>577082.86415819</v>
+        <v>639800.7119128173</v>
       </c>
     </row>
     <row r="9">
@@ -9178,28 +9178,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>447.2187560600713</v>
+        <v>489.5897588308239</v>
       </c>
       <c r="AB9" t="n">
-        <v>611.9044319404413</v>
+        <v>669.8783072081004</v>
       </c>
       <c r="AC9" t="n">
-        <v>553.5051317693091</v>
+        <v>605.9460617482678</v>
       </c>
       <c r="AD9" t="n">
-        <v>447218.7560600713</v>
+        <v>489589.7588308239</v>
       </c>
       <c r="AE9" t="n">
-        <v>611904.4319404414</v>
+        <v>669878.3072081005</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.792280289935495e-06</v>
+        <v>4.070827149486359e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.15833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>553505.1317693091</v>
+        <v>605946.0617482677</v>
       </c>
     </row>
     <row r="10">
@@ -9284,28 +9284,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>443.7368917071679</v>
+        <v>486.1078944779206</v>
       </c>
       <c r="AB10" t="n">
-        <v>607.140391523785</v>
+        <v>665.114266791444</v>
       </c>
       <c r="AC10" t="n">
-        <v>549.1957646836457</v>
+        <v>601.6366946626042</v>
       </c>
       <c r="AD10" t="n">
-        <v>443736.8917071679</v>
+        <v>486107.8944779206</v>
       </c>
       <c r="AE10" t="n">
-        <v>607140.391523785</v>
+        <v>665114.266791444</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.801852113103994e-06</v>
+        <v>4.08478177924357e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.12083333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>549195.7646836457</v>
+        <v>601636.6946626042</v>
       </c>
     </row>
     <row r="11">
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>444.1611785067515</v>
+        <v>486.5321812775043</v>
       </c>
       <c r="AB11" t="n">
-        <v>607.7209194411878</v>
+        <v>665.694794708847</v>
       </c>
       <c r="AC11" t="n">
-        <v>549.7208878313875</v>
+        <v>602.1618178103463</v>
       </c>
       <c r="AD11" t="n">
-        <v>444161.1785067515</v>
+        <v>486532.1812775042</v>
       </c>
       <c r="AE11" t="n">
-        <v>607720.9194411878</v>
+        <v>665694.794708847</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.806787584425251e-06</v>
+        <v>4.091977135212131e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.1</v>
       </c>
       <c r="AH11" t="n">
-        <v>549720.8878313875</v>
+        <v>602161.8178103463</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.956782539631</v>
+        <v>382.918975552366</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.8296706534983</v>
+        <v>523.9266355436878</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.612242436762</v>
+        <v>473.9238127830488</v>
       </c>
       <c r="AD2" t="n">
-        <v>330956.782539631</v>
+        <v>382918.975552366</v>
       </c>
       <c r="AE2" t="n">
-        <v>452829.6706534983</v>
+        <v>523926.6355436877</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.915154204945728e-06</v>
+        <v>4.670761799276728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>409612.242436762</v>
+        <v>473923.8127830488</v>
       </c>
     </row>
     <row r="3">
@@ -9793,28 +9793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.3040391474698</v>
+        <v>366.0015518883042</v>
       </c>
       <c r="AB3" t="n">
-        <v>439.6223612953598</v>
+        <v>500.7794701424606</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.6654201471893</v>
+        <v>452.9857803604642</v>
       </c>
       <c r="AD3" t="n">
-        <v>321304.0391474698</v>
+        <v>366001.5518883042</v>
       </c>
       <c r="AE3" t="n">
-        <v>439622.3612953598</v>
+        <v>500779.4701424607</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.979768355371553e-06</v>
+        <v>4.774288845972798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.51458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>397665.4201471892</v>
+        <v>452985.7803604642</v>
       </c>
     </row>
   </sheetData>
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1178.499374797404</v>
+        <v>1260.746251671112</v>
       </c>
       <c r="AB2" t="n">
-        <v>1612.474836320832</v>
+        <v>1725.008641735563</v>
       </c>
       <c r="AC2" t="n">
-        <v>1458.582501065018</v>
+        <v>1560.376238033154</v>
       </c>
       <c r="AD2" t="n">
-        <v>1178499.374797404</v>
+        <v>1260746.251671112</v>
       </c>
       <c r="AE2" t="n">
-        <v>1612474.836320832</v>
+        <v>1725008.641735563</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.609162136187691e-06</v>
+        <v>2.389353450996623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.13125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1458582.501065018</v>
+        <v>1560376.238033154</v>
       </c>
     </row>
     <row r="3">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>611.136395644805</v>
+        <v>668.7688853986153</v>
       </c>
       <c r="AB3" t="n">
-        <v>836.1837779561564</v>
+        <v>915.0390930033221</v>
       </c>
       <c r="AC3" t="n">
-        <v>756.3795717793233</v>
+        <v>827.7090462325174</v>
       </c>
       <c r="AD3" t="n">
-        <v>611136.395644805</v>
+        <v>668768.8853986154</v>
       </c>
       <c r="AE3" t="n">
-        <v>836183.7779561564</v>
+        <v>915039.0930033221</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.358466642351425e-06</v>
+        <v>3.501953149552302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.73541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>756379.5717793233</v>
+        <v>827709.0462325173</v>
       </c>
     </row>
     <row r="4">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>508.1836688405606</v>
+        <v>557.4976944263775</v>
       </c>
       <c r="AB4" t="n">
-        <v>695.3193151888375</v>
+        <v>762.7929405766162</v>
       </c>
       <c r="AC4" t="n">
-        <v>628.9590156340023</v>
+        <v>689.9930529145993</v>
       </c>
       <c r="AD4" t="n">
-        <v>508183.6688405607</v>
+        <v>557497.6944263775</v>
       </c>
       <c r="AE4" t="n">
-        <v>695319.3151888376</v>
+        <v>762792.9405766162</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.619533723872262e-06</v>
+        <v>3.889596829542961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.36666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>628959.0156340023</v>
+        <v>689993.0529145993</v>
       </c>
     </row>
     <row r="5">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>451.4186707201998</v>
+        <v>500.8179476520372</v>
       </c>
       <c r="AB5" t="n">
-        <v>617.650940465587</v>
+        <v>685.241210506015</v>
       </c>
       <c r="AC5" t="n">
-        <v>558.7032015860901</v>
+        <v>619.8427511173994</v>
       </c>
       <c r="AD5" t="n">
-        <v>451418.6707201998</v>
+        <v>500817.9476520372</v>
       </c>
       <c r="AE5" t="n">
-        <v>617650.9404655871</v>
+        <v>685241.210506015</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.761962220997387e-06</v>
+        <v>4.101080814576578e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.72916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>558703.2015860901</v>
+        <v>619842.7511173994</v>
       </c>
     </row>
     <row r="6">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>418.5431160530745</v>
+        <v>467.7718007843197</v>
       </c>
       <c r="AB6" t="n">
-        <v>572.6691562029163</v>
+        <v>640.0260144684971</v>
       </c>
       <c r="AC6" t="n">
-        <v>518.014415681118</v>
+        <v>578.9428299297761</v>
       </c>
       <c r="AD6" t="n">
-        <v>418543.1160530745</v>
+        <v>467771.8007843197</v>
       </c>
       <c r="AE6" t="n">
-        <v>572669.1562029163</v>
+        <v>640026.0144684971</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.845304660363181e-06</v>
+        <v>4.224831268701054e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.38541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>518014.4156811179</v>
+        <v>578942.829929776</v>
       </c>
     </row>
     <row r="7">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>408.7133491373505</v>
+        <v>457.9420338685957</v>
       </c>
       <c r="AB7" t="n">
-        <v>559.2196354501123</v>
+        <v>626.5764937156932</v>
       </c>
       <c r="AC7" t="n">
-        <v>505.8484983124407</v>
+        <v>566.7769125610988</v>
       </c>
       <c r="AD7" t="n">
-        <v>408713.3491373505</v>
+        <v>457942.0338685957</v>
       </c>
       <c r="AE7" t="n">
-        <v>559219.6354501123</v>
+        <v>626576.4937156932</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.870493979723738e-06</v>
+        <v>4.262233458193898e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.28541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>505848.4983124407</v>
+        <v>566776.9125610988</v>
       </c>
     </row>
     <row r="8">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>409.4638647797359</v>
+        <v>458.6925495109811</v>
       </c>
       <c r="AB8" t="n">
-        <v>560.2465240624375</v>
+        <v>627.6033823280184</v>
       </c>
       <c r="AC8" t="n">
-        <v>506.7773821168527</v>
+        <v>567.7057963655109</v>
       </c>
       <c r="AD8" t="n">
-        <v>409463.8647797359</v>
+        <v>458692.5495109811</v>
       </c>
       <c r="AE8" t="n">
-        <v>560246.5240624375</v>
+        <v>627603.3823280183</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.875158668494212e-06</v>
+        <v>4.269159789581462e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.26666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>506777.3821168527</v>
+        <v>567705.7963655109</v>
       </c>
     </row>
   </sheetData>
@@ -11023,28 +11023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1480.977366604133</v>
+        <v>1572.835682596226</v>
       </c>
       <c r="AB2" t="n">
-        <v>2026.338569097998</v>
+        <v>2152.023169541269</v>
       </c>
       <c r="AC2" t="n">
-        <v>1832.947660047328</v>
+        <v>1946.637098623739</v>
       </c>
       <c r="AD2" t="n">
-        <v>1480977.366604133</v>
+        <v>1572835.682596226</v>
       </c>
       <c r="AE2" t="n">
-        <v>2026338.569097998</v>
+        <v>2152023.16954127</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.419891329374718e-06</v>
+        <v>2.087868526478066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.35208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1832947.660047328</v>
+        <v>1946637.098623739</v>
       </c>
     </row>
     <row r="3">
@@ -11129,28 +11129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>698.8668456182347</v>
+        <v>757.291137123741</v>
       </c>
       <c r="AB3" t="n">
-        <v>956.2204500040966</v>
+        <v>1036.159143139761</v>
       </c>
       <c r="AC3" t="n">
-        <v>864.9601123195356</v>
+        <v>937.2695687769925</v>
       </c>
       <c r="AD3" t="n">
-        <v>698866.8456182347</v>
+        <v>757291.137123741</v>
       </c>
       <c r="AE3" t="n">
-        <v>956220.4500040966</v>
+        <v>1036159.143139761</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.215152352908626e-06</v>
+        <v>3.257254117488313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.32916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>864960.1123195356</v>
+        <v>937269.5687769925</v>
       </c>
     </row>
     <row r="4">
@@ -11235,28 +11235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>565.9296863542124</v>
+        <v>624.3538883511677</v>
       </c>
       <c r="AB4" t="n">
-        <v>774.3299639255097</v>
+        <v>854.2685345916257</v>
       </c>
       <c r="AC4" t="n">
-        <v>700.4289989473882</v>
+        <v>772.7383446236187</v>
       </c>
       <c r="AD4" t="n">
-        <v>565929.6863542125</v>
+        <v>624353.8883511677</v>
       </c>
       <c r="AE4" t="n">
-        <v>774329.9639255097</v>
+        <v>854268.5345916257</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.49425545542091e-06</v>
+        <v>3.667659175482714e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.725</v>
       </c>
       <c r="AH4" t="n">
-        <v>700428.9989473883</v>
+        <v>772738.3446236186</v>
       </c>
     </row>
     <row r="5">
@@ -11341,28 +11341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>512.5605691263853</v>
+        <v>562.6263545102449</v>
       </c>
       <c r="AB5" t="n">
-        <v>701.3079832551156</v>
+        <v>769.8101995638777</v>
       </c>
       <c r="AC5" t="n">
-        <v>634.376133625183</v>
+        <v>696.3405945529016</v>
       </c>
       <c r="AD5" t="n">
-        <v>512560.5691263853</v>
+        <v>562626.3545102449</v>
       </c>
       <c r="AE5" t="n">
-        <v>701307.9832551156</v>
+        <v>769810.1995638778</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.64203384485154e-06</v>
+        <v>3.88495879680071e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.0125</v>
       </c>
       <c r="AH5" t="n">
-        <v>634376.133625183</v>
+        <v>696340.5945529016</v>
       </c>
     </row>
     <row r="6">
@@ -11447,28 +11447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>469.5579359124275</v>
+        <v>519.7089726423077</v>
       </c>
       <c r="AB6" t="n">
-        <v>642.4698833494947</v>
+        <v>711.0887443109063</v>
       </c>
       <c r="AC6" t="n">
-        <v>581.1534593947628</v>
+        <v>643.2234325731935</v>
       </c>
       <c r="AD6" t="n">
-        <v>469557.9359124275</v>
+        <v>519708.9726423077</v>
       </c>
       <c r="AE6" t="n">
-        <v>642469.8833494947</v>
+        <v>711088.7443109064</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.733900204466664e-06</v>
+        <v>4.020042994382928e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.61041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>581153.4593947628</v>
+        <v>643223.4325731935</v>
       </c>
     </row>
     <row r="7">
@@ -11553,28 +11553,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>442.7019167678451</v>
+        <v>492.6823612971331</v>
       </c>
       <c r="AB7" t="n">
-        <v>605.7242931519318</v>
+        <v>674.1097423384964</v>
       </c>
       <c r="AC7" t="n">
-        <v>547.9148167528955</v>
+        <v>609.7736546486751</v>
       </c>
       <c r="AD7" t="n">
-        <v>442701.9167678451</v>
+        <v>492682.3612971331</v>
       </c>
       <c r="AE7" t="n">
-        <v>605724.2931519317</v>
+        <v>674109.7423384964</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.795601490775329e-06</v>
+        <v>4.110771186788896e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>547914.8167528955</v>
+        <v>609773.6546486751</v>
       </c>
     </row>
     <row r="8">
@@ -11659,28 +11659,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>428.607842443512</v>
+        <v>478.5882869728</v>
       </c>
       <c r="AB8" t="n">
-        <v>586.4401588747036</v>
+        <v>654.8256080612682</v>
       </c>
       <c r="AC8" t="n">
-        <v>530.4711331856334</v>
+        <v>592.3299710814131</v>
       </c>
       <c r="AD8" t="n">
-        <v>428607.8424435121</v>
+        <v>478588.2869728</v>
       </c>
       <c r="AE8" t="n">
-        <v>586440.1588747036</v>
+        <v>654825.6080612682</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.826223610647037e-06</v>
+        <v>4.155799252649635e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.23125</v>
       </c>
       <c r="AH8" t="n">
-        <v>530471.1331856335</v>
+        <v>592329.9710814131</v>
       </c>
     </row>
     <row r="9">
@@ -11765,28 +11765,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>429.4971790867141</v>
+        <v>479.4776236160021</v>
       </c>
       <c r="AB9" t="n">
-        <v>587.6569885046963</v>
+        <v>656.0424376912609</v>
       </c>
       <c r="AC9" t="n">
-        <v>531.5718303035709</v>
+        <v>593.4306681993505</v>
       </c>
       <c r="AD9" t="n">
-        <v>429497.1790867142</v>
+        <v>479477.6236160021</v>
       </c>
       <c r="AE9" t="n">
-        <v>587656.9885046963</v>
+        <v>656042.4376912609</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.827747099197868e-06</v>
+        <v>4.158039454931264e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.225</v>
       </c>
       <c r="AH9" t="n">
-        <v>531571.8303035708</v>
+        <v>593430.6681993505</v>
       </c>
     </row>
   </sheetData>
@@ -12062,28 +12062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2402.509715128037</v>
+        <v>2522.572396698625</v>
       </c>
       <c r="AB2" t="n">
-        <v>3287.219783486512</v>
+        <v>3451.494841203082</v>
       </c>
       <c r="AC2" t="n">
-        <v>2973.492140992377</v>
+        <v>3122.089017761964</v>
       </c>
       <c r="AD2" t="n">
-        <v>2402509.715128037</v>
+        <v>2522572.396698625</v>
       </c>
       <c r="AE2" t="n">
-        <v>3287219.783486512</v>
+        <v>3451494.841203082</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.086557126142418e-06</v>
+        <v>1.572000977024265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.19583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2973492.140992377</v>
+        <v>3122089.017761964</v>
       </c>
     </row>
     <row r="3">
@@ -12168,28 +12168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>885.7641682899816</v>
+        <v>954.4201299566151</v>
       </c>
       <c r="AB3" t="n">
-        <v>1211.941612211531</v>
+        <v>1305.879727851079</v>
       </c>
       <c r="AC3" t="n">
-        <v>1096.275605712798</v>
+        <v>1181.248399438681</v>
       </c>
       <c r="AD3" t="n">
-        <v>885764.1682899817</v>
+        <v>954420.1299566152</v>
       </c>
       <c r="AE3" t="n">
-        <v>1211941.612211531</v>
+        <v>1305879.727851079</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.9572439232583e-06</v>
+        <v>2.831686697008116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.65208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1096275.605712798</v>
+        <v>1181248.399438681</v>
       </c>
     </row>
     <row r="4">
@@ -12274,28 +12274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>694.9384220502362</v>
+        <v>754.8417963079484</v>
       </c>
       <c r="AB4" t="n">
-        <v>950.8454075685451</v>
+        <v>1032.807846978303</v>
       </c>
       <c r="AC4" t="n">
-        <v>860.0980563901135</v>
+        <v>934.2381156176102</v>
       </c>
       <c r="AD4" t="n">
-        <v>694938.4220502363</v>
+        <v>754841.7963079483</v>
       </c>
       <c r="AE4" t="n">
-        <v>950845.4075685451</v>
+        <v>1032807.846978303</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.270167669967065e-06</v>
+        <v>3.284416170429098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.49375</v>
       </c>
       <c r="AH4" t="n">
-        <v>860098.0563901134</v>
+        <v>934238.1156176102</v>
       </c>
     </row>
     <row r="5">
@@ -12380,28 +12380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>614.9232896136851</v>
+        <v>674.9119152174178</v>
       </c>
       <c r="AB5" t="n">
-        <v>841.365173350349</v>
+        <v>923.4442574127563</v>
       </c>
       <c r="AC5" t="n">
-        <v>761.0664620692282</v>
+        <v>835.3120335474373</v>
       </c>
       <c r="AD5" t="n">
-        <v>614923.2896136851</v>
+        <v>674911.9152174178</v>
       </c>
       <c r="AE5" t="n">
-        <v>841365.173350349</v>
+        <v>923444.2574127563</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.435011429394004e-06</v>
+        <v>3.522907589463366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.58125</v>
       </c>
       <c r="AH5" t="n">
-        <v>761066.4620692283</v>
+        <v>835312.0335474373</v>
       </c>
     </row>
     <row r="6">
@@ -12486,28 +12486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>573.3358700725397</v>
+        <v>624.7425899764942</v>
       </c>
       <c r="AB6" t="n">
-        <v>784.4634312266909</v>
+        <v>854.8003733037028</v>
       </c>
       <c r="AC6" t="n">
-        <v>709.5953423517553</v>
+        <v>773.2194253954557</v>
       </c>
       <c r="AD6" t="n">
-        <v>573335.8700725397</v>
+        <v>624742.5899764942</v>
       </c>
       <c r="AE6" t="n">
-        <v>784463.4312266909</v>
+        <v>854800.3733037028</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.538829176187419e-06</v>
+        <v>3.673108251228034e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.06666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>709595.3423517554</v>
+        <v>773219.4253954557</v>
       </c>
     </row>
     <row r="7">
@@ -12592,28 +12592,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>534.9400290388427</v>
+        <v>586.4320002888177</v>
       </c>
       <c r="AB7" t="n">
-        <v>731.9285476194299</v>
+        <v>802.3821343490912</v>
       </c>
       <c r="AC7" t="n">
-        <v>662.0743143027993</v>
+        <v>725.8039095972117</v>
       </c>
       <c r="AD7" t="n">
-        <v>534940.0290388427</v>
+        <v>586432.0002888177</v>
       </c>
       <c r="AE7" t="n">
-        <v>731928.5476194299</v>
+        <v>802382.1343490912</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.611325138183388e-06</v>
+        <v>3.777993415888064e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.73125</v>
       </c>
       <c r="AH7" t="n">
-        <v>662074.3143027993</v>
+        <v>725803.9095972118</v>
       </c>
     </row>
     <row r="8">
@@ -12698,28 +12698,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>512.7151917977261</v>
+        <v>564.2071630477011</v>
       </c>
       <c r="AB8" t="n">
-        <v>701.5195448155148</v>
+        <v>771.9731315451762</v>
       </c>
       <c r="AC8" t="n">
-        <v>634.5675040471864</v>
+        <v>698.2970993415987</v>
       </c>
       <c r="AD8" t="n">
-        <v>512715.1917977261</v>
+        <v>564207.1630477011</v>
       </c>
       <c r="AE8" t="n">
-        <v>701519.5448155148</v>
+        <v>771973.1315451763</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.662351707782984e-06</v>
+        <v>3.851817253894211e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.50625</v>
       </c>
       <c r="AH8" t="n">
-        <v>634567.5040471863</v>
+        <v>698297.0993415987</v>
       </c>
     </row>
     <row r="9">
@@ -12804,28 +12804,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>493.1423798822242</v>
+        <v>544.463758931607</v>
       </c>
       <c r="AB9" t="n">
-        <v>674.7391600612056</v>
+        <v>744.9593350160198</v>
       </c>
       <c r="AC9" t="n">
-        <v>610.3430016273223</v>
+        <v>673.8614616390837</v>
       </c>
       <c r="AD9" t="n">
-        <v>493142.3798822243</v>
+        <v>544463.758931607</v>
       </c>
       <c r="AE9" t="n">
-        <v>674739.1600612055</v>
+        <v>744959.3350160199</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.700437821691617e-06</v>
+        <v>3.906919196382949e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.34375</v>
       </c>
       <c r="AH9" t="n">
-        <v>610343.0016273223</v>
+        <v>673861.4616390837</v>
       </c>
     </row>
     <row r="10">
@@ -12910,28 +12910,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>479.9067317989321</v>
+        <v>531.2281108483149</v>
       </c>
       <c r="AB10" t="n">
-        <v>656.6295624380626</v>
+        <v>726.849737392877</v>
       </c>
       <c r="AC10" t="n">
-        <v>593.9617585843522</v>
+        <v>657.4802185961136</v>
       </c>
       <c r="AD10" t="n">
-        <v>479906.7317989321</v>
+        <v>531228.1108483149</v>
       </c>
       <c r="AE10" t="n">
-        <v>656629.5624380626</v>
+        <v>726849.737392877</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.718966201430952e-06</v>
+        <v>3.933725546782876e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.26666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>593961.7585843522</v>
+        <v>657480.2185961136</v>
       </c>
     </row>
     <row r="11">
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>466.3591417073743</v>
+        <v>509.2692072575712</v>
       </c>
       <c r="AB11" t="n">
-        <v>638.0931519973003</v>
+        <v>696.8045967415665</v>
       </c>
       <c r="AC11" t="n">
-        <v>577.1944371400408</v>
+        <v>630.3025439999443</v>
       </c>
       <c r="AD11" t="n">
-        <v>466359.1417073743</v>
+        <v>509269.2072575712</v>
       </c>
       <c r="AE11" t="n">
-        <v>638093.1519973003</v>
+        <v>696804.5967415664</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.746758771039953e-06</v>
+        <v>3.973935072382765e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.15208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>577194.4371400408</v>
+        <v>630302.5439999443</v>
       </c>
     </row>
     <row r="12">
@@ -13122,28 +13122,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>467.918729870555</v>
+        <v>510.8287954207519</v>
       </c>
       <c r="AB12" t="n">
-        <v>640.227049326338</v>
+        <v>698.9384940706041</v>
       </c>
       <c r="AC12" t="n">
-        <v>579.1246783029388</v>
+        <v>632.2327851628423</v>
       </c>
       <c r="AD12" t="n">
-        <v>467918.729870555</v>
+        <v>510828.7954207518</v>
       </c>
       <c r="AE12" t="n">
-        <v>640227.049326338</v>
+        <v>698938.4940706041</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.746023517875695e-06</v>
+        <v>3.972871328319275e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.15625</v>
       </c>
       <c r="AH12" t="n">
-        <v>579124.6783029388</v>
+        <v>632232.7851628424</v>
       </c>
     </row>
   </sheetData>
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>934.6762058741739</v>
+        <v>1007.453237626944</v>
       </c>
       <c r="AB2" t="n">
-        <v>1278.865219881028</v>
+        <v>1378.441965421209</v>
       </c>
       <c r="AC2" t="n">
-        <v>1156.812118194191</v>
+        <v>1246.885398896857</v>
       </c>
       <c r="AD2" t="n">
-        <v>934676.2058741739</v>
+        <v>1007453.237626944</v>
       </c>
       <c r="AE2" t="n">
-        <v>1278865.219881028</v>
+        <v>1378441.965421209</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.819628994600325e-06</v>
+        <v>2.732508864442941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.21458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1156812.118194191</v>
+        <v>1246885.398896857</v>
       </c>
     </row>
     <row r="3">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>534.9046870831712</v>
+        <v>583.4796319909159</v>
       </c>
       <c r="AB3" t="n">
-        <v>731.8801911965035</v>
+        <v>798.3425737946052</v>
       </c>
       <c r="AC3" t="n">
-        <v>662.0305729490082</v>
+        <v>722.1498790324869</v>
       </c>
       <c r="AD3" t="n">
-        <v>534904.6870831712</v>
+        <v>583479.6319909159</v>
       </c>
       <c r="AE3" t="n">
-        <v>731880.1911965035</v>
+        <v>798342.5737946052</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.518335983959009e-06</v>
+        <v>3.781746400081462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.16041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>662030.5729490082</v>
+        <v>722149.8790324868</v>
       </c>
     </row>
     <row r="4">
@@ -13631,28 +13631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>439.1504110802343</v>
+        <v>495.6503940034836</v>
       </c>
       <c r="AB4" t="n">
-        <v>600.8649663887695</v>
+        <v>678.1707356276867</v>
       </c>
       <c r="AC4" t="n">
-        <v>543.5192573159015</v>
+        <v>613.447072437985</v>
       </c>
       <c r="AD4" t="n">
-        <v>439150.4110802343</v>
+        <v>495650.3940034836</v>
       </c>
       <c r="AE4" t="n">
-        <v>600864.9663887696</v>
+        <v>678170.7356276867</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.766351511374807e-06</v>
+        <v>4.154187501643495e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.98125</v>
       </c>
       <c r="AH4" t="n">
-        <v>543519.2573159016</v>
+        <v>613447.072437985</v>
       </c>
     </row>
     <row r="5">
@@ -13737,28 +13737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>397.4874231557165</v>
+        <v>445.8916863543179</v>
       </c>
       <c r="AB5" t="n">
-        <v>543.8598282691396</v>
+        <v>610.0886766228463</v>
       </c>
       <c r="AC5" t="n">
-        <v>491.9546095711953</v>
+        <v>551.8626695907966</v>
       </c>
       <c r="AD5" t="n">
-        <v>397487.4231557165</v>
+        <v>445891.6863543179</v>
       </c>
       <c r="AE5" t="n">
-        <v>543859.8282691396</v>
+        <v>610088.6766228463</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.889802473064775e-06</v>
+        <v>4.339571911401122e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.46875</v>
       </c>
       <c r="AH5" t="n">
-        <v>491954.6095711953</v>
+        <v>551862.6695907966</v>
       </c>
     </row>
     <row r="6">
@@ -13843,28 +13843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>389.049591106885</v>
+        <v>437.4538543054865</v>
       </c>
       <c r="AB6" t="n">
-        <v>532.3148142090506</v>
+        <v>598.5436625627572</v>
       </c>
       <c r="AC6" t="n">
-        <v>481.5114354494722</v>
+        <v>541.4194954690735</v>
       </c>
       <c r="AD6" t="n">
-        <v>389049.5911068851</v>
+        <v>437453.8543054865</v>
       </c>
       <c r="AE6" t="n">
-        <v>532314.8142090506</v>
+        <v>598543.6625627571</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.914301761853764e-06</v>
+        <v>4.376362116430341e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.37291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>481511.4354494722</v>
+        <v>541419.4954690734</v>
       </c>
     </row>
     <row r="7">
@@ -13949,28 +13949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>390.0543162147933</v>
+        <v>438.4585794133948</v>
       </c>
       <c r="AB7" t="n">
-        <v>533.6895234270343</v>
+        <v>599.9183717807408</v>
       </c>
       <c r="AC7" t="n">
-        <v>482.7549443491079</v>
+        <v>542.6630043687092</v>
       </c>
       <c r="AD7" t="n">
-        <v>390054.3162147934</v>
+        <v>438458.5794133948</v>
       </c>
       <c r="AE7" t="n">
-        <v>533689.5234270343</v>
+        <v>599918.3717807408</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.918915264288054e-06</v>
+        <v>4.383290142052727e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>482754.9443491079</v>
+        <v>542663.0043687092</v>
       </c>
     </row>
   </sheetData>
@@ -14246,28 +14246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>642.4809632533933</v>
+        <v>705.3464991900369</v>
       </c>
       <c r="AB2" t="n">
-        <v>879.0707981829548</v>
+        <v>965.086197883177</v>
       </c>
       <c r="AC2" t="n">
-        <v>795.173514987987</v>
+        <v>872.9797256641916</v>
       </c>
       <c r="AD2" t="n">
-        <v>642480.9632533933</v>
+        <v>705346.4991900369</v>
       </c>
       <c r="AE2" t="n">
-        <v>879070.7981829548</v>
+        <v>965086.197883177</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.192908976506516e-06</v>
+        <v>3.363367013310424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.74375</v>
       </c>
       <c r="AH2" t="n">
-        <v>795173.514987987</v>
+        <v>872979.7256641916</v>
       </c>
     </row>
     <row r="3">
@@ -14352,28 +14352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>413.1805793194446</v>
+        <v>460.2444799259067</v>
       </c>
       <c r="AB3" t="n">
-        <v>565.33189686554</v>
+        <v>629.7268019880573</v>
       </c>
       <c r="AC3" t="n">
-        <v>511.3774140769927</v>
+        <v>569.6265598334339</v>
       </c>
       <c r="AD3" t="n">
-        <v>413180.5793194447</v>
+        <v>460244.4799259066</v>
       </c>
       <c r="AE3" t="n">
-        <v>565331.89686554</v>
+        <v>629726.8019880573</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.804232275405673e-06</v>
+        <v>4.300982135512657e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>511377.4140769928</v>
+        <v>569626.5598334339</v>
       </c>
     </row>
     <row r="4">
@@ -14458,28 +14458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>357.9344778496236</v>
+        <v>405.0836298021063</v>
       </c>
       <c r="AB4" t="n">
-        <v>489.741743548549</v>
+        <v>554.2532933237155</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.0014789011288</v>
+        <v>501.3561369082823</v>
       </c>
       <c r="AD4" t="n">
-        <v>357934.4778496236</v>
+        <v>405083.6298021062</v>
       </c>
       <c r="AE4" t="n">
-        <v>489741.743548549</v>
+        <v>554253.2933237156</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.976576062571605e-06</v>
+        <v>4.56531385876837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.59791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>443001.4789011289</v>
+        <v>501356.1369082823</v>
       </c>
     </row>
     <row r="5">
@@ -14564,28 +14564,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>359.6302991794844</v>
+        <v>406.7794511319671</v>
       </c>
       <c r="AB5" t="n">
-        <v>492.0620411064216</v>
+        <v>556.5735908815882</v>
       </c>
       <c r="AC5" t="n">
-        <v>445.1003305166361</v>
+        <v>503.4549885237896</v>
       </c>
       <c r="AD5" t="n">
-        <v>359630.2991794844</v>
+        <v>406779.4511319671</v>
       </c>
       <c r="AE5" t="n">
-        <v>492062.0411064216</v>
+        <v>556573.5908815882</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.97624463221167e-06</v>
+        <v>4.56480552853134e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>445100.3305166361</v>
+        <v>503454.9885237896</v>
       </c>
     </row>
     <row r="6">
@@ -14670,28 +14670,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>360.9459980470654</v>
+        <v>408.095149999548</v>
       </c>
       <c r="AB6" t="n">
-        <v>493.8622383415833</v>
+        <v>558.3737881167499</v>
       </c>
       <c r="AC6" t="n">
-        <v>446.7287194542667</v>
+        <v>505.0833774614201</v>
       </c>
       <c r="AD6" t="n">
-        <v>360945.9980470654</v>
+        <v>408095.149999548</v>
       </c>
       <c r="AE6" t="n">
-        <v>493862.2383415833</v>
+        <v>558373.7881167498</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.980387511710851e-06</v>
+        <v>4.571159656494218e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.58333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>446728.7194542667</v>
+        <v>505083.3774614201</v>
       </c>
     </row>
   </sheetData>
@@ -26716,28 +26716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>485.239616368267</v>
+        <v>538.8321856528862</v>
       </c>
       <c r="AB2" t="n">
-        <v>663.9262503760892</v>
+        <v>737.2539680085955</v>
       </c>
       <c r="AC2" t="n">
-        <v>600.5620608665394</v>
+        <v>666.8914840442974</v>
       </c>
       <c r="AD2" t="n">
-        <v>485239.616368267</v>
+        <v>538832.1856528862</v>
       </c>
       <c r="AE2" t="n">
-        <v>663926.2503760892</v>
+        <v>737253.9680085955</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.506572314246336e-06</v>
+        <v>3.916469797954723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.24791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>600562.0608665394</v>
+        <v>666891.4840442974</v>
       </c>
     </row>
     <row r="3">
@@ -26822,28 +26822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>337.0876946222381</v>
+        <v>390.5948335437347</v>
       </c>
       <c r="AB3" t="n">
-        <v>461.218255041673</v>
+        <v>534.4290830824333</v>
       </c>
       <c r="AC3" t="n">
-        <v>417.2002321043815</v>
+        <v>483.4239214689742</v>
       </c>
       <c r="AD3" t="n">
-        <v>337087.6946222381</v>
+        <v>390594.8335437347</v>
       </c>
       <c r="AE3" t="n">
-        <v>461218.255041673</v>
+        <v>534429.0830824333</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.994275654010447e-06</v>
+        <v>4.678496646209489e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>417200.2321043815</v>
+        <v>483423.9214689742</v>
       </c>
     </row>
     <row r="4">
@@ -26928,28 +26928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>337.8538093516296</v>
+        <v>391.3609482731262</v>
       </c>
       <c r="AB4" t="n">
-        <v>462.266487013023</v>
+        <v>535.4773150537834</v>
       </c>
       <c r="AC4" t="n">
-        <v>418.1484222875887</v>
+        <v>484.3721116521813</v>
       </c>
       <c r="AD4" t="n">
-        <v>337853.8093516296</v>
+        <v>391360.9482731262</v>
       </c>
       <c r="AE4" t="n">
-        <v>462266.487013023</v>
+        <v>535477.3150537834</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.001989766590196e-06</v>
+        <v>4.690549794951656e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>418148.4222875887</v>
+        <v>484372.1116521813</v>
       </c>
     </row>
   </sheetData>
@@ -27225,28 +27225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.4779783437358</v>
+        <v>358.228604807275</v>
       </c>
       <c r="AB2" t="n">
-        <v>430.282643759142</v>
+        <v>490.1441810279734</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.2170721442521</v>
+        <v>443.3655083123414</v>
       </c>
       <c r="AD2" t="n">
-        <v>314477.9783437358</v>
+        <v>358228.604807275</v>
       </c>
       <c r="AE2" t="n">
-        <v>430282.643759142</v>
+        <v>490144.1810279734</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.906138196437706e-06</v>
+        <v>4.736064058212094e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.18958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>389217.0721442521</v>
+        <v>443365.5083123414</v>
       </c>
     </row>
     <row r="3">
@@ -27331,28 +27331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.1667847804089</v>
+        <v>360.9174112439482</v>
       </c>
       <c r="AB3" t="n">
-        <v>433.9615873475663</v>
+        <v>493.8231246163976</v>
       </c>
       <c r="AC3" t="n">
-        <v>392.5449025200269</v>
+        <v>446.6933386881163</v>
       </c>
       <c r="AD3" t="n">
-        <v>317166.784780409</v>
+        <v>360917.4112439482</v>
       </c>
       <c r="AE3" t="n">
-        <v>433961.5873475663</v>
+        <v>493823.1246163977</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.909450034838204e-06</v>
+        <v>4.741461282210056e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.175</v>
       </c>
       <c r="AH3" t="n">
-        <v>392544.9025200269</v>
+        <v>446693.3386881163</v>
       </c>
     </row>
   </sheetData>
@@ -27628,28 +27628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1321.730602390596</v>
+        <v>1412.829162221437</v>
       </c>
       <c r="AB2" t="n">
-        <v>1808.450120829633</v>
+        <v>1933.095189375003</v>
       </c>
       <c r="AC2" t="n">
-        <v>1635.854179473338</v>
+        <v>1748.603297617191</v>
       </c>
       <c r="AD2" t="n">
-        <v>1321730.602390596</v>
+        <v>1412829.162221437</v>
       </c>
       <c r="AE2" t="n">
-        <v>1808450.120829633</v>
+        <v>1933095.189375003</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.511770145198485e-06</v>
+        <v>2.233460193738325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.20416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1635854.179473338</v>
+        <v>1748603.297617191</v>
       </c>
     </row>
     <row r="3">
@@ -27734,28 +27734,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>658.1556725995162</v>
+        <v>716.1507907280438</v>
       </c>
       <c r="AB3" t="n">
-        <v>900.5176270296913</v>
+        <v>979.8691062171805</v>
       </c>
       <c r="AC3" t="n">
-        <v>814.5734885904044</v>
+        <v>886.35177397474</v>
       </c>
       <c r="AD3" t="n">
-        <v>658155.6725995161</v>
+        <v>716150.7907280439</v>
       </c>
       <c r="AE3" t="n">
-        <v>900517.6270296914</v>
+        <v>979869.1062171805</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.286350390585678e-06</v>
+        <v>3.377810180026237e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.02083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>814573.4885904044</v>
+        <v>886351.7739747401</v>
       </c>
     </row>
     <row r="4">
@@ -27840,28 +27840,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>535.8502727224454</v>
+        <v>585.7187874123442</v>
       </c>
       <c r="AB4" t="n">
-        <v>733.1739831844526</v>
+        <v>801.406285026769</v>
       </c>
       <c r="AC4" t="n">
-        <v>663.200887245476</v>
+        <v>724.9211939645987</v>
       </c>
       <c r="AD4" t="n">
-        <v>535850.2727224454</v>
+        <v>585718.7874123442</v>
       </c>
       <c r="AE4" t="n">
-        <v>733173.9831844526</v>
+        <v>801406.2850267689</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.558392081853965e-06</v>
+        <v>3.779719352802762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.52916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>663200.887245476</v>
+        <v>724921.1939645987</v>
       </c>
     </row>
     <row r="5">
@@ -27946,28 +27946,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>477.9744479849392</v>
+        <v>527.7576218202664</v>
       </c>
       <c r="AB5" t="n">
-        <v>653.9857264774122</v>
+        <v>722.1012611975307</v>
       </c>
       <c r="AC5" t="n">
-        <v>591.5702466171391</v>
+        <v>653.1849303043231</v>
       </c>
       <c r="AD5" t="n">
-        <v>477974.4479849392</v>
+        <v>527757.6218202665</v>
       </c>
       <c r="AE5" t="n">
-        <v>653985.7264774122</v>
+        <v>722101.2611975307</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.699644498474037e-06</v>
+        <v>3.988402961744419e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH5" t="n">
-        <v>591570.2466171391</v>
+        <v>653184.9303043231</v>
       </c>
     </row>
     <row r="6">
@@ -28052,28 +28052,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>444.8541659839077</v>
+        <v>494.4667476186427</v>
       </c>
       <c r="AB6" t="n">
-        <v>608.6690954798828</v>
+        <v>676.5512184251545</v>
       </c>
       <c r="AC6" t="n">
-        <v>550.5785712797228</v>
+        <v>611.9821196842557</v>
       </c>
       <c r="AD6" t="n">
-        <v>444854.1659839077</v>
+        <v>494466.7476186427</v>
       </c>
       <c r="AE6" t="n">
-        <v>608669.0954798828</v>
+        <v>676551.2184251545</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.789042814439464e-06</v>
+        <v>4.12047831773037e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.49375</v>
       </c>
       <c r="AH6" t="n">
-        <v>550578.5712797228</v>
+        <v>611982.1196842557</v>
       </c>
     </row>
     <row r="7">
@@ -28158,28 +28158,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>421.1176740389587</v>
+        <v>470.7302556736936</v>
       </c>
       <c r="AB7" t="n">
-        <v>576.1917800206852</v>
+        <v>644.0739029659568</v>
       </c>
       <c r="AC7" t="n">
-        <v>521.2008452257525</v>
+        <v>582.6043936302852</v>
       </c>
       <c r="AD7" t="n">
-        <v>421117.6740389587</v>
+        <v>470730.2556736937</v>
       </c>
       <c r="AE7" t="n">
-        <v>576191.7800206852</v>
+        <v>644073.9029659568</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.84120465456387e-06</v>
+        <v>4.19754121907157e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.28333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>521200.8452257525</v>
+        <v>582604.3936302853</v>
       </c>
     </row>
     <row r="8">
@@ -28264,28 +28264,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>419.0498659331082</v>
+        <v>468.6624475678431</v>
       </c>
       <c r="AB8" t="n">
-        <v>573.3625137450051</v>
+        <v>641.2446366902767</v>
       </c>
       <c r="AC8" t="n">
-        <v>518.6416001525232</v>
+        <v>580.0451485570562</v>
       </c>
       <c r="AD8" t="n">
-        <v>419049.8659331081</v>
+        <v>468662.4475678431</v>
       </c>
       <c r="AE8" t="n">
-        <v>573362.5137450051</v>
+        <v>641244.6366902767</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.848282662368361e-06</v>
+        <v>4.207998131937928e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.25416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>518641.6001525233</v>
+        <v>580045.1485570562</v>
       </c>
     </row>
     <row r="9">
@@ -28370,28 +28370,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>419.7054425761396</v>
+        <v>469.3180242108745</v>
       </c>
       <c r="AB9" t="n">
-        <v>574.2595026300011</v>
+        <v>642.1416255752728</v>
       </c>
       <c r="AC9" t="n">
-        <v>519.452981677267</v>
+        <v>580.8565300817999</v>
       </c>
       <c r="AD9" t="n">
-        <v>419705.4425761396</v>
+        <v>469318.0242108745</v>
       </c>
       <c r="AE9" t="n">
-        <v>574259.5026300011</v>
+        <v>642141.6255752727</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.853052624149649e-06</v>
+        <v>4.215045181913082e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.23541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>519452.981677267</v>
+        <v>580856.5300817998</v>
       </c>
     </row>
   </sheetData>
@@ -28667,28 +28667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2114.140126639639</v>
+        <v>2233.289953354371</v>
       </c>
       <c r="AB2" t="n">
-        <v>2892.659790548126</v>
+        <v>3055.685839978765</v>
       </c>
       <c r="AC2" t="n">
-        <v>2616.588400011727</v>
+        <v>2764.055472093088</v>
       </c>
       <c r="AD2" t="n">
-        <v>2114140.126639639</v>
+        <v>2233289.953354371</v>
       </c>
       <c r="AE2" t="n">
-        <v>2892659.790548126</v>
+        <v>3055685.839978765</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.165876676502758e-06</v>
+        <v>1.693049985661604e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.49375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2616588.400011727</v>
+        <v>2764055.472093088</v>
       </c>
     </row>
     <row r="3">
@@ -28773,28 +28773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>839.4872895995979</v>
+        <v>907.5485601246589</v>
       </c>
       <c r="AB3" t="n">
-        <v>1148.623545195549</v>
+        <v>1241.747978179276</v>
       </c>
       <c r="AC3" t="n">
-        <v>1039.000526145355</v>
+        <v>1123.237293946079</v>
       </c>
       <c r="AD3" t="n">
-        <v>839487.2895995979</v>
+        <v>907548.560124659</v>
       </c>
       <c r="AE3" t="n">
-        <v>1148623.545195549</v>
+        <v>1241747.978179276</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.016819859314577e-06</v>
+        <v>2.928763309801494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.31666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1039000.526145356</v>
+        <v>1123237.293946079</v>
       </c>
     </row>
     <row r="4">
@@ -28879,28 +28879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>663.19422991619</v>
+        <v>722.7265176005443</v>
       </c>
       <c r="AB4" t="n">
-        <v>907.4116034358252</v>
+        <v>988.8663058247308</v>
       </c>
       <c r="AC4" t="n">
-        <v>820.8095135640935</v>
+        <v>894.4902934793947</v>
       </c>
       <c r="AD4" t="n">
-        <v>663194.22991619</v>
+        <v>722726.5176005443</v>
       </c>
       <c r="AE4" t="n">
-        <v>907411.6034358252</v>
+        <v>988866.3058247308</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.325081033223929e-06</v>
+        <v>3.37641063527402e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.28541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>820809.5135640935</v>
+        <v>894490.2934793947</v>
       </c>
     </row>
     <row r="5">
@@ -28985,28 +28985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>589.4142049901471</v>
+        <v>640.5028506883665</v>
       </c>
       <c r="AB5" t="n">
-        <v>806.4625183870363</v>
+        <v>876.3642573033178</v>
       </c>
       <c r="AC5" t="n">
-        <v>729.4948675094302</v>
+        <v>792.7252825712486</v>
       </c>
       <c r="AD5" t="n">
-        <v>589414.2049901471</v>
+        <v>640502.8506883665</v>
       </c>
       <c r="AE5" t="n">
-        <v>806462.5183870363</v>
+        <v>876364.2573033178</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.482844327615247e-06</v>
+        <v>3.605509603192619e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.44166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>729494.8675094302</v>
+        <v>792725.2825712486</v>
       </c>
     </row>
     <row r="6">
@@ -29091,28 +29091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>542.1465863840659</v>
+        <v>601.6787845598691</v>
       </c>
       <c r="AB6" t="n">
-        <v>741.7888773100361</v>
+        <v>823.2434572293934</v>
       </c>
       <c r="AC6" t="n">
-        <v>670.9935879667936</v>
+        <v>744.6742571008682</v>
       </c>
       <c r="AD6" t="n">
-        <v>542146.5863840659</v>
+        <v>601678.7845598691</v>
       </c>
       <c r="AE6" t="n">
-        <v>741788.8773100361</v>
+        <v>823243.4572293933</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.581446386609821e-06</v>
+        <v>3.748696458141744e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.96666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>670993.5879667936</v>
+        <v>744674.2571008682</v>
       </c>
     </row>
     <row r="7">
@@ -29197,28 +29197,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>513.437302640412</v>
+        <v>564.6111996846519</v>
       </c>
       <c r="AB7" t="n">
-        <v>702.5075687277598</v>
+        <v>772.5259522966905</v>
       </c>
       <c r="AC7" t="n">
-        <v>635.4612323439468</v>
+        <v>698.7971596564776</v>
       </c>
       <c r="AD7" t="n">
-        <v>513437.302640412</v>
+        <v>564611.1996846519</v>
       </c>
       <c r="AE7" t="n">
-        <v>702507.5687277598</v>
+        <v>772525.9522966905</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.651876428748802e-06</v>
+        <v>3.850972783105404e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.64791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>635461.2323439468</v>
+        <v>698797.1596564775</v>
       </c>
     </row>
     <row r="8">
@@ -29303,28 +29303,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>489.6921128085691</v>
+        <v>540.6954176522169</v>
       </c>
       <c r="AB8" t="n">
-        <v>670.0183524359903</v>
+        <v>739.8033242300741</v>
       </c>
       <c r="AC8" t="n">
-        <v>606.0727412561624</v>
+        <v>669.1975332860419</v>
       </c>
       <c r="AD8" t="n">
-        <v>489692.1128085691</v>
+        <v>540695.4176522169</v>
       </c>
       <c r="AE8" t="n">
-        <v>670018.3524359904</v>
+        <v>739803.3242300741</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.704513618136883e-06</v>
+        <v>3.927410878604561e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.42083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>606072.7412561624</v>
+        <v>669197.5332860419</v>
       </c>
     </row>
     <row r="9">
@@ -29409,28 +29409,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>470.7207426596764</v>
+        <v>521.7240475033241</v>
       </c>
       <c r="AB9" t="n">
-        <v>644.0608868404938</v>
+        <v>713.8458586345776</v>
       </c>
       <c r="AC9" t="n">
-        <v>582.5926197455683</v>
+        <v>645.7174117754478</v>
       </c>
       <c r="AD9" t="n">
-        <v>470720.7426596764</v>
+        <v>521724.0475033241</v>
       </c>
       <c r="AE9" t="n">
-        <v>644060.8868404938</v>
+        <v>713845.8586345776</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.742916525324244e-06</v>
+        <v>3.983178390532115e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.2625</v>
       </c>
       <c r="AH9" t="n">
-        <v>582592.6197455683</v>
+        <v>645717.4117754478</v>
       </c>
     </row>
     <row r="10">
@@ -29515,28 +29515,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>459.6020291998951</v>
+        <v>502.2470329119795</v>
       </c>
       <c r="AB10" t="n">
-        <v>628.8477725618027</v>
+        <v>687.1965480054599</v>
       </c>
       <c r="AC10" t="n">
-        <v>568.8314237418954</v>
+        <v>621.6114739502309</v>
       </c>
       <c r="AD10" t="n">
-        <v>459602.0291998951</v>
+        <v>502247.0329119795</v>
       </c>
       <c r="AE10" t="n">
-        <v>628847.7725618026</v>
+        <v>687196.5480054599</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.758633545254205e-06</v>
+        <v>4.006002159892426e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>568831.4237418954</v>
+        <v>621611.4739502309</v>
       </c>
     </row>
     <row r="11">
@@ -29621,28 +29621,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>458.1855085119588</v>
+        <v>500.830512224043</v>
       </c>
       <c r="AB11" t="n">
-        <v>626.9096264640859</v>
+        <v>685.2584019077432</v>
       </c>
       <c r="AC11" t="n">
-        <v>567.0782515875395</v>
+        <v>619.8583017958749</v>
       </c>
       <c r="AD11" t="n">
-        <v>458185.5085119588</v>
+        <v>500830.512224043</v>
       </c>
       <c r="AE11" t="n">
-        <v>626909.6264640859</v>
+        <v>685258.4019077432</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.766936876537959e-06</v>
+        <v>4.018060000309195e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.16458333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>567078.2515875396</v>
+        <v>619858.301795875</v>
       </c>
     </row>
   </sheetData>
@@ -29918,28 +29918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>308.3094948533308</v>
+        <v>365.149465760848</v>
       </c>
       <c r="AB2" t="n">
-        <v>421.8426525132845</v>
+        <v>499.6136083114883</v>
       </c>
       <c r="AC2" t="n">
-        <v>381.5825818172972</v>
+        <v>451.9311867463425</v>
       </c>
       <c r="AD2" t="n">
-        <v>308309.4948533308</v>
+        <v>365149.465760848</v>
       </c>
       <c r="AE2" t="n">
-        <v>421842.6525132845</v>
+        <v>499613.6083114884</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.722003702234342e-06</v>
+        <v>4.537417997252296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.58125</v>
       </c>
       <c r="AH2" t="n">
-        <v>381582.5818172972</v>
+        <v>451931.1867463425</v>
       </c>
     </row>
   </sheetData>
@@ -30215,28 +30215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>731.979572417864</v>
+        <v>803.3771003456354</v>
       </c>
       <c r="AB2" t="n">
-        <v>1001.526743641756</v>
+        <v>1099.21599118916</v>
       </c>
       <c r="AC2" t="n">
-        <v>905.942436880199</v>
+        <v>994.3083597493992</v>
       </c>
       <c r="AD2" t="n">
-        <v>731979.572417864</v>
+        <v>803377.1003456354</v>
       </c>
       <c r="AE2" t="n">
-        <v>1001526.743641756</v>
+        <v>1099215.99118916</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.059209780172102e-06</v>
+        <v>3.133924999958302e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>905942.436880199</v>
+        <v>994308.3597493992</v>
       </c>
     </row>
     <row r="3">
@@ -30321,28 +30321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.3378351167727</v>
+        <v>505.8502810929122</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.1720935098766</v>
+        <v>692.1266711307028</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.365493708258</v>
+        <v>626.0710730438718</v>
       </c>
       <c r="AD3" t="n">
-        <v>450337.8351167727</v>
+        <v>505850.2810929122</v>
       </c>
       <c r="AE3" t="n">
-        <v>616172.0935098766</v>
+        <v>692126.6711307028</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.7045703710714e-06</v>
+        <v>4.116103556646264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.57916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>557365.493708258</v>
+        <v>626071.0730438718</v>
       </c>
     </row>
     <row r="4">
@@ -30427,28 +30427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>377.7547410443262</v>
+        <v>425.4099868992216</v>
       </c>
       <c r="AB4" t="n">
-        <v>516.8607020598407</v>
+        <v>582.0647118395755</v>
       </c>
       <c r="AC4" t="n">
-        <v>467.5322420738002</v>
+        <v>526.5132726745595</v>
       </c>
       <c r="AD4" t="n">
-        <v>377754.7410443262</v>
+        <v>425409.9868992215</v>
       </c>
       <c r="AE4" t="n">
-        <v>516860.7020598407</v>
+        <v>582064.7118395754</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.927474522533328e-06</v>
+        <v>4.455342860765462e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.62083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>467532.2420738002</v>
+        <v>526513.2726745595</v>
       </c>
     </row>
     <row r="5">
@@ -30533,28 +30533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>369.3160126047819</v>
+        <v>416.9712584596771</v>
       </c>
       <c r="AB5" t="n">
-        <v>505.3144615184323</v>
+        <v>570.518471298167</v>
       </c>
       <c r="AC5" t="n">
-        <v>457.0879585244134</v>
+        <v>516.0689891251727</v>
       </c>
       <c r="AD5" t="n">
-        <v>369316.0126047818</v>
+        <v>416971.2584596771</v>
       </c>
       <c r="AE5" t="n">
-        <v>505314.4615184322</v>
+        <v>570518.471298167</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.956705176827603e-06</v>
+        <v>4.499829187093181e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.50625</v>
       </c>
       <c r="AH5" t="n">
-        <v>457087.9585244134</v>
+        <v>516068.9891251727</v>
       </c>
     </row>
     <row r="6">
@@ -30639,28 +30639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>370.1703950199394</v>
+        <v>417.6550486742424</v>
       </c>
       <c r="AB6" t="n">
-        <v>506.4834652315428</v>
+        <v>571.4540632364306</v>
       </c>
       <c r="AC6" t="n">
-        <v>458.1453941638516</v>
+        <v>516.9152894819599</v>
       </c>
       <c r="AD6" t="n">
-        <v>370170.3950199394</v>
+        <v>417655.0486742425</v>
       </c>
       <c r="AE6" t="n">
-        <v>506483.4652315428</v>
+        <v>571454.0632364305</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.961114269933444e-06</v>
+        <v>4.506539415086748e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.48958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>458145.3941638516</v>
+        <v>516915.2894819599</v>
       </c>
     </row>
   </sheetData>
@@ -30936,28 +30936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1050.980450718307</v>
+        <v>1132.472070048027</v>
       </c>
       <c r="AB2" t="n">
-        <v>1437.997818657927</v>
+        <v>1549.498247381361</v>
       </c>
       <c r="AC2" t="n">
-        <v>1300.757325087828</v>
+        <v>1401.616309385732</v>
       </c>
       <c r="AD2" t="n">
-        <v>1050980.450718307</v>
+        <v>1132472.070048027</v>
       </c>
       <c r="AE2" t="n">
-        <v>1437997.818657927</v>
+        <v>1549498.247381361</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.710896896091559e-06</v>
+        <v>2.554216272543027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.14375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1300757.325087828</v>
+        <v>1401616.309385732</v>
       </c>
     </row>
     <row r="3">
@@ -31042,28 +31042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>573.1975320113844</v>
+        <v>630.1904878820105</v>
       </c>
       <c r="AB3" t="n">
-        <v>784.2741509883737</v>
+        <v>862.2544275623233</v>
       </c>
       <c r="AC3" t="n">
-        <v>709.4241267537268</v>
+        <v>779.9620751774642</v>
       </c>
       <c r="AD3" t="n">
-        <v>573197.5320113844</v>
+        <v>630190.4878820105</v>
       </c>
       <c r="AE3" t="n">
-        <v>784274.1509883737</v>
+        <v>862254.4275623233</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.434749984641966e-06</v>
+        <v>3.634864289340315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.45208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>709424.1267537267</v>
+        <v>779962.0751774642</v>
       </c>
     </row>
     <row r="4">
@@ -31148,28 +31148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>477.8042160053066</v>
+        <v>526.7162915774733</v>
       </c>
       <c r="AB4" t="n">
-        <v>653.752807572774</v>
+        <v>720.6764672190931</v>
       </c>
       <c r="AC4" t="n">
-        <v>591.3595571658558</v>
+        <v>651.8961166634766</v>
       </c>
       <c r="AD4" t="n">
-        <v>477804.2160053066</v>
+        <v>526716.2915774733</v>
       </c>
       <c r="AE4" t="n">
-        <v>653752.807572774</v>
+        <v>720676.4672190931</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.691651797563636e-06</v>
+        <v>4.018395753164549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.16875</v>
       </c>
       <c r="AH4" t="n">
-        <v>591359.5571658558</v>
+        <v>651896.1166634766</v>
       </c>
     </row>
     <row r="5">
@@ -31254,28 +31254,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>424.1314339947111</v>
+        <v>473.1287609128982</v>
       </c>
       <c r="AB5" t="n">
-        <v>580.3153393498512</v>
+        <v>647.3556436488195</v>
       </c>
       <c r="AC5" t="n">
-        <v>524.9308578399948</v>
+        <v>585.5729295883276</v>
       </c>
       <c r="AD5" t="n">
-        <v>424131.4339947111</v>
+        <v>473128.7609128982</v>
       </c>
       <c r="AE5" t="n">
-        <v>580315.3393498512</v>
+        <v>647355.6436488195</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.825919942138365e-06</v>
+        <v>4.218846102066566e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.59166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>524930.8578399948</v>
+        <v>585572.9295883276</v>
       </c>
     </row>
     <row r="6">
@@ -31360,28 +31360,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>399.6596146527402</v>
+        <v>448.4863493703351</v>
       </c>
       <c r="AB6" t="n">
-        <v>546.831916505693</v>
+        <v>613.6388090298145</v>
       </c>
       <c r="AC6" t="n">
-        <v>494.643045877804</v>
+        <v>555.0739823434859</v>
       </c>
       <c r="AD6" t="n">
-        <v>399659.6146527402</v>
+        <v>448486.3493703351</v>
       </c>
       <c r="AE6" t="n">
-        <v>546831.916505693</v>
+        <v>613638.8090298146</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.890695674649826e-06</v>
+        <v>4.315550485845992e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.33125</v>
       </c>
       <c r="AH6" t="n">
-        <v>494643.045877804</v>
+        <v>555073.9823434859</v>
       </c>
     </row>
     <row r="7">
@@ -31466,28 +31466,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>400.2115276650131</v>
+        <v>449.038262382608</v>
       </c>
       <c r="AB7" t="n">
-        <v>547.5870682377684</v>
+        <v>614.39396076189</v>
       </c>
       <c r="AC7" t="n">
-        <v>495.3261269884322</v>
+        <v>555.7570634541141</v>
       </c>
       <c r="AD7" t="n">
-        <v>400211.5276650131</v>
+        <v>449038.262382608</v>
       </c>
       <c r="AE7" t="n">
-        <v>547587.0682377685</v>
+        <v>614393.9607618899</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.893368459729182e-06</v>
+        <v>4.319540715273784e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.32083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>495326.1269884323</v>
+        <v>555757.0634541141</v>
       </c>
     </row>
   </sheetData>
